--- a/data/evaluation/evaluation_Center_Autumn_Sweet Potatoes.xlsx
+++ b/data/evaluation/evaluation_Center_Autumn_Sweet Potatoes.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2177.517391304348</v>
+        <v>2162.3</v>
       </c>
       <c r="C3" t="n">
-        <v>38494991.62120774</v>
+        <v>38468361.18642513</v>
       </c>
       <c r="D3" t="n">
-        <v>6204.433223204819</v>
+        <v>6202.286770734253</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.08275558394850413</v>
+        <v>-0.08200654489824077</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2139.726122935037</v>
+        <v>2139.550967329772</v>
       </c>
       <c r="C4" t="n">
-        <v>38119881.92379092</v>
+        <v>38167736.62451995</v>
       </c>
       <c r="D4" t="n">
-        <v>6174.130054006874</v>
+        <v>6178.004259024103</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.07220480572083643</v>
+        <v>-0.07355082353381359</v>
       </c>
     </row>
     <row r="5">
